--- a/biology/Zoologie/Hydroida/Hydroida.xlsx
+++ b/biology/Zoologie/Hydroida/Hydroida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Hydroida est un ordre obsolète de méduses se nourrissant de plancton.
-Selon World Register of Marine Species                               (20 mars 2012)[1] et ITIS      (20 mars 2012)[2], c'est un synonyme de la sous-classe des Hydroidolina.
+Selon World Register of Marine Species                               (20 mars 2012) et ITIS      (20 mars 2012), c'est un synonyme de la sous-classe des Hydroidolina.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-ordres et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (20 mars 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (20 mars 2012) :
 sous-ordre des Anthomedusae
 famille des Bougainvilliidae
 famille des Candelabridae
@@ -593,9 +607,11 @@
           <t>Liste des genres fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database                   (20 mars 2012)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database                   (20 mars 2012) :
 genre Archaeoantennularia
 genre Archaeocryptolaria
 genre Archaeolafoea
